--- a/CSSP Tools-Comments and Suggestions_new.xlsx
+++ b/CSSP Tools-Comments and Suggestions_new.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="349">
   <si>
     <t>Item</t>
   </si>
@@ -1005,9 +1005,6 @@
     <t>|||SUBSECTOR_MAP_ACTIVE_POL_SOURCE_SITES|||</t>
   </si>
   <si>
-    <t>|||SUBSECTOR_MWQM_SITES|||</t>
-  </si>
-  <si>
     <t>|||SUBSECTOR_POLLUTION_SOURCE_SITES|||</t>
   </si>
   <si>
@@ -1029,9 +1026,6 @@
     <t>Will create a temporary map of all the active MWQM Pollution source sites for the subsector</t>
   </si>
   <si>
-    <t>Will create some documentation for MWQM Sites (need to be subdivided more)</t>
-  </si>
-  <si>
     <t>Will create some documentation for MWQM Pollution source sites (need to be subdivided more)</t>
   </si>
   <si>
@@ -1177,6 +1171,48 @@
   </si>
   <si>
     <t>Will create a list of appendices from the appendices in the document (should this be removed?)</t>
+  </si>
+  <si>
+    <t>|||SUBSECTOR_MWQM_SITES_DATA_AVAILABILITY|||</t>
+  </si>
+  <si>
+    <t>Will create a table showing the availability of data by year</t>
+  </si>
+  <si>
+    <t>|||SUBSECTOR_MWQM_SITES_NUMBER_OF_RUNS_BY_YEAR|||</t>
+  </si>
+  <si>
+    <t>|||SUBSECTOR_MWQM_SITES_NUMBER_OF_SITES_BY_YEAR|||</t>
+  </si>
+  <si>
+    <t>|||SUBSECTOR_MWQM_SITES_NUMBER_OF_SAMPLES_BY_YEAR|||</t>
+  </si>
+  <si>
+    <t>|||SUBSECTOR_MWQM_SITES_SALINITY_TABLE|||</t>
+  </si>
+  <si>
+    <t>|||SUBSECTOR_MWQM_SITES_FC_TABLE|||</t>
+  </si>
+  <si>
+    <t>|||SUBSECTOR_MWQM_SITES_TEMPERATURE_TABLE|||</t>
+  </si>
+  <si>
+    <t>Will create a graphic showing the number of sites monitored by year</t>
+  </si>
+  <si>
+    <t>Will create a graphic showing the number of runs by year</t>
+  </si>
+  <si>
+    <t>Will create a graphic showinig the number of samples analyzed by year</t>
+  </si>
+  <si>
+    <t>Will create a table showing all the FC data use within the analysis</t>
+  </si>
+  <si>
+    <t>Will create a table showing all the salinity data use within the analysis</t>
+  </si>
+  <si>
+    <t>Will create a table showing all the temperature data use within the analysis</t>
   </si>
 </sst>
 </file>
@@ -1291,7 +1327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1362,6 +1398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3450,7 +3487,7 @@
         <v>154</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.2">
@@ -3473,7 +3510,7 @@
         <v>164</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.2">
@@ -3519,7 +3556,7 @@
         <v>154</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.2">
@@ -3539,10 +3576,10 @@
         <v>234</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3556,16 +3593,16 @@
         <v>245</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>234</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.2">
@@ -3585,10 +3622,10 @@
         <v>234</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.2">
@@ -3611,7 +3648,7 @@
         <v>138</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.2">
@@ -3631,10 +3668,10 @@
         <v>234</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.2">
@@ -3657,7 +3694,7 @@
         <v>154</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.2">
@@ -3680,7 +3717,7 @@
         <v>154</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.2">
@@ -3703,7 +3740,7 @@
         <v>154</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.2">
@@ -3726,7 +3763,7 @@
         <v>154</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3764,22 +3801,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.44140625" customWidth="1"/>
+    <col min="1" max="1" width="57.88671875" customWidth="1"/>
     <col min="2" max="2" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>1</v>
@@ -3787,7 +3826,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B3" s="25"/>
     </row>
@@ -3799,7 +3838,7 @@
         <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3810,7 +3849,7 @@
         <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3821,7 +3860,7 @@
         <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3832,7 +3871,7 @@
         <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3840,10 +3879,10 @@
         <v>277</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3851,200 +3890,266 @@
         <v>278</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>279</v>
+        <v>335</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>330</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>287</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
-        <v>280</v>
+      <c r="A11" s="28" t="s">
+        <v>338</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>330</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>288</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>138</v>
       </c>
       <c r="C12" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
-        <v>304</v>
+      <c r="A13" s="28" t="s">
+        <v>339</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
-        <v>305</v>
+      <c r="A14" s="28" t="s">
+        <v>341</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>331</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="C17" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
+      <c r="A18" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="B21" s="25"/>
+      <c r="A19" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="C21" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>289</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" t="s">
-        <v>313</v>
-      </c>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="C23" t="s">
-        <v>310</v>
-      </c>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="C24" t="s">
-        <v>312</v>
-      </c>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="B28" s="25"/>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B27" s="25"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>287</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="C29" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="C30" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="B34" s="25"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>288</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="C35" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>290</v>
       </c>
-      <c r="B29" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B36" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="C36" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>297</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="C37" t="s">
         <v>292</v>
       </c>
-      <c r="B30" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>299</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B38" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="C38" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>296</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="C39" t="s">
         <v>295</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="C32" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>298</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="C33" t="s">
-        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/CSSP Tools-Comments and Suggestions_new.xlsx
+++ b/CSSP Tools-Comments and Suggestions_new.xlsx
@@ -1206,13 +1206,13 @@
     <t>Will create a graphic showinig the number of samples analyzed by year</t>
   </si>
   <si>
-    <t>Will create a table showing all the FC data use within the analysis</t>
-  </si>
-  <si>
-    <t>Will create a table showing all the salinity data use within the analysis</t>
-  </si>
-  <si>
-    <t>Will create a table showing all the temperature data use within the analysis</t>
+    <t>Will create a table showing all the FC data</t>
+  </si>
+  <si>
+    <t>Will create a table showing all the salinity data</t>
+  </si>
+  <si>
+    <t>Will create a table showing all the temperature data</t>
   </si>
 </sst>
 </file>
@@ -3804,7 +3804,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/CSSP Tools-Comments and Suggestions_new.xlsx
+++ b/CSSP Tools-Comments and Suggestions_new.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="359">
   <si>
     <t>Item</t>
   </si>
@@ -1062,9 +1062,6 @@
     <t>|||PROVINCE_NAME|||</t>
   </si>
   <si>
-    <t>Content</t>
-  </si>
-  <si>
     <t>Tag</t>
   </si>
   <si>
@@ -1080,12 +1077,6 @@
     <t>|||LIST_OF_TABLES|||</t>
   </si>
   <si>
-    <t>Will create a list of figures from the figures in the document</t>
-  </si>
-  <si>
-    <t>Will create a list of tables from the tables in the document</t>
-  </si>
-  <si>
     <t>Note: You need to delete all text related to the year under the section before being able to delete the section</t>
   </si>
   <si>
@@ -1213,6 +1204,45 @@
   </si>
   <si>
     <t>Will create a table showing all the temperature data</t>
+  </si>
+  <si>
+    <t>Content Subsector</t>
+  </si>
+  <si>
+    <t>Content General</t>
+  </si>
+  <si>
+    <t>Will create a temporary map showing the infrastructure of the municipality</t>
+  </si>
+  <si>
+    <t>|||MUNICIPALITY_MAP_INFRASTRUCTURE|||</t>
+  </si>
+  <si>
+    <t>|||MUNICIPALITY_CONTACTS|||</t>
+  </si>
+  <si>
+    <t>Will create a list of contacts and their roles with the management of the municipality infrastructure</t>
+  </si>
+  <si>
+    <t>Content Municipality</t>
+  </si>
+  <si>
+    <t>|||MUNICIPALITY_INFRASTRUCTURE_DETAIL|||</t>
+  </si>
+  <si>
+    <t>Will create a list of infrastructure showing the detail of each (i.e. which one is pumping to the other, description, flows, etc... )</t>
+  </si>
+  <si>
+    <t>Will create a list of figures from the figures caption found in the document</t>
+  </si>
+  <si>
+    <t>Will create a list of tables from the tables caption found in the document</t>
+  </si>
+  <si>
+    <t>|||SUBSECTOR_MUNICIPALITIES|||</t>
+  </si>
+  <si>
+    <t>Will create some documentation for each municipality within the subsector using the document type unique code "SubsectorMunicipalityDocx" under subsector</t>
   </si>
 </sst>
 </file>
@@ -3149,9 +3179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3487,7 +3515,7 @@
         <v>154</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.2">
@@ -3510,7 +3538,7 @@
         <v>164</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.2">
@@ -3556,7 +3584,7 @@
         <v>154</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.2">
@@ -3576,10 +3604,10 @@
         <v>234</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3593,16 +3621,16 @@
         <v>245</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>234</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.2">
@@ -3622,10 +3650,10 @@
         <v>234</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.2">
@@ -3648,7 +3676,7 @@
         <v>138</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.2">
@@ -3668,10 +3696,10 @@
         <v>234</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.2">
@@ -3694,7 +3722,7 @@
         <v>154</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.2">
@@ -3717,7 +3745,7 @@
         <v>154</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.2">
@@ -3740,7 +3768,7 @@
         <v>154</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.2">
@@ -3763,7 +3791,7 @@
         <v>154</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3801,10 +3829,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3815,10 +3843,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>1</v>
@@ -3826,329 +3854,391 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="B3" s="25"/>
+        <v>347</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>283</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>281</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>138</v>
+        <v>326</v>
       </c>
       <c r="C7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="C8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="C9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" t="s">
-        <v>336</v>
-      </c>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="B10" s="25"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
-        <v>338</v>
+      <c r="A11" s="24" t="s">
+        <v>273</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>343</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>138</v>
       </c>
       <c r="C12" t="s">
-        <v>344</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
-        <v>339</v>
+      <c r="A13" s="24" t="s">
+        <v>275</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>345</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
-        <v>341</v>
+      <c r="A14" s="24" t="s">
+        <v>276</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>346</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
-        <v>340</v>
+        <v>277</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>138</v>
+        <v>324</v>
       </c>
       <c r="C15" t="s">
-        <v>347</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
-        <v>342</v>
+        <v>278</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>138</v>
+        <v>324</v>
       </c>
       <c r="C16" t="s">
-        <v>348</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
-        <v>279</v>
+        <v>332</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>328</v>
+        <v>138</v>
       </c>
       <c r="C17" t="s">
-        <v>286</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
-        <v>300</v>
+      <c r="A18" s="28" t="s">
+        <v>335</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>138</v>
       </c>
       <c r="C18" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>138</v>
       </c>
       <c r="C19" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
-        <v>303</v>
+      <c r="A20" s="28" t="s">
+        <v>336</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>138</v>
       </c>
       <c r="C20" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="C24" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C31" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C32" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C33" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B38" s="25"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C40" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
-        <v>319</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="C21" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="B27" s="25"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>287</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="24" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C41" t="s">
         <v>307</v>
       </c>
-      <c r="B29" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="C29" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="B30" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="C30" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="B34" s="25"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="B45" s="25"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>288</v>
       </c>
-      <c r="B35" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B46" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C46" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>290</v>
       </c>
-      <c r="B36" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B47" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C47" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>297</v>
       </c>
-      <c r="B37" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B48" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C48" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>293</v>
       </c>
-      <c r="B38" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B49" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C49" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>296</v>
       </c>
-      <c r="B39" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B50" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C50" t="s">
         <v>295</v>
       </c>
     </row>
